--- a/demotry1.xlsx
+++ b/demotry1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecb/Desktop/Thesis/ThesisTestFast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3D135F-C7CE-8542-BD17-990B3EDDCB4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4C7D4C-E4F9-934A-BB46-021D6585752F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>index</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>Natural Science, Social Science, Arts and Humanities, Other, Prefer not to say, No educational experience outside of high school</t>
+  </si>
+  <si>
+    <t>Master's degree or above, Bachelor's degree, Some college, Highschool, Other, Prefer not to say</t>
   </si>
 </sst>
 </file>
@@ -949,9 +952,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K4"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1034,10 +1037,10 @@
         <v>17</v>
       </c>
       <c r="I2" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1054,7 +1057,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>16</v>
@@ -1063,10 +1066,10 @@
         <v>17</v>
       </c>
       <c r="I3" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1092,10 +1095,10 @@
         <v>17</v>
       </c>
       <c r="I4" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +1109,7 @@
     <dataValidation type="list" errorStyle="warning" allowBlank="1" sqref="C2:C1048576" xr:uid="{A947903D-D5FA-490B-856C-2CF38199E34B}">
       <formula1>"heading, description, rating, slider, free text, choice"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" sqref="K5:K1048576 K2:K3" xr:uid="{906D5986-CBBD-45F9-8BDD-784254E57BFB}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" sqref="K6:K1048576 K3:K4" xr:uid="{906D5986-CBBD-45F9-8BDD-784254E57BFB}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
